--- a/biology/Botanique/Boletus_aurantioruber/Boletus_aurantioruber.xlsx
+++ b/biology/Botanique/Boletus_aurantioruber/Boletus_aurantioruber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus aurantioruber, communément appelé en français Cèpe rouge-orangé, est une espèce comestible de champignons basidiomycètes, de la région du Michigan. C'est un cèpe du genre Boletus et de la famille des Boletaceae. Ressemblant morphologiquement à Boletus pinophilus européen, il est classé dans le groupe des Boletus edulis sensu stricto par une analyse phylogénétique récente[1] qui a précisé qu'il s'agit d'une espèce différente de Boletus edulis et non uniquement une variété.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus aurantioruber, communément appelé en français Cèpe rouge-orangé, est une espèce comestible de champignons basidiomycètes, de la région du Michigan. C'est un cèpe du genre Boletus et de la famille des Boletaceae. Ressemblant morphologiquement à Boletus pinophilus européen, il est classé dans le groupe des Boletus edulis sensu stricto par une analyse phylogénétique récente qui a précisé qu'il s'agit d'une espèce différente de Boletus edulis et non uniquement une variété.
 </t>
         </is>
       </c>
@@ -513,10 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial
-Boletus aurantioruber (E.A. Dick &amp; Snell 1965) Both, Bessette &amp; W.J. Neill, 2001 [2]
-Synonymes
-Boletus edulis f. aurantioruber E.A. Dick &amp; Snell 1965.</t>
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus aurantioruber (E.A. Dick &amp; Snell 1965) Both, Bessette &amp; W.J. Neill, 2001 
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +557,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus edulis f. aurantioruber E.A. Dick &amp; Snell 1965.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_aurantioruber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aurantioruber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : 6-20 cm de diamètre, convexe à largement convexe puis subétalé, viscidule, glabre, lisse, parfois légèrement alvéolé,
 Cuticule : orange rougeâtre ou  rouille, à marge unie.
@@ -557,37 +611,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boletus_aurantioruber</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boletus_aurantioruber</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solitaire ou dispersé ; il se rencontre sur sol sous Abies balsamea[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,12 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Confusion possible</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeune, la confusion est possible entre Boletus chippewaensis et Boletus aurantioruber, dont la cuticule est typiquement rouge-orangée et le pied nettement plus réticulé.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solitaire ou dispersé ; il se rencontre sur sol sous Abies balsamea.
 </t>
         </is>
       </c>
@@ -640,12 +665,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin-juin à mi-octobre.
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeune, la confusion est possible entre Boletus chippewaensis et Boletus aurantioruber, dont la cuticule est typiquement rouge-orangée et le pied nettement plus réticulé.
 </t>
         </is>
       </c>
@@ -671,10 +698,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin-juin à mi-octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_aurantioruber</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aurantioruber</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible.
 </t>
